--- a/xlsx/country_comparison/global_policies_positive.xlsx
+++ b/xlsx/country_comparison/global_policies_positive.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298507462686567</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290322580645161</v>
+        <v>0.281767955801105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.413793103448276</v>
+        <v>0.368852459016393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.308823529411765</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.255813953488372</v>
+        <v>0.303537466717383</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.432835820895522</v>
+        <v>0.422535211267606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290322580645161</v>
+        <v>0.397790055248619</v>
       </c>
       <c r="D3" t="n">
-        <v>0.482758620689655</v>
+        <v>0.442622950819672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.411764705882353</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="F3" t="n">
-        <v>0.337209302325581</v>
+        <v>0.336249524534043</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26865671641791</v>
+        <v>0.394366197183099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.612903225806452</v>
+        <v>0.441988950276243</v>
       </c>
       <c r="D4" t="n">
-        <v>0.551724137931034</v>
+        <v>0.483606557377049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.367647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.372093023255814</v>
+        <v>0.386839102320274</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.552238805970149</v>
+        <v>0.549295774647887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.419354838709677</v>
+        <v>0.541436464088398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.689655172413793</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.470588235294118</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="F5" t="n">
-        <v>0.430232558139535</v>
+        <v>0.415747432483834</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.686567164179104</v>
+        <v>0.591549295774648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.741935483870968</v>
+        <v>0.56353591160221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.655172413793103</v>
+        <v>0.688524590163934</v>
       </c>
       <c r="E6" t="n">
-        <v>0.676470588235294</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.441860465116279</v>
+        <v>0.437428680106504</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.388059701492537</v>
+        <v>0.415492957746479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.451612903225806</v>
+        <v>0.430939226519337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.448275862068966</v>
+        <v>0.434426229508197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="F7" t="n">
-        <v>0.255813953488372</v>
+        <v>0.343476607074933</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_positive.xlsx
+++ b/xlsx/country_comparison/global_policies_positive.xlsx
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.352112676056338</v>
+        <v>0.359677419354839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.281767955801105</v>
+        <v>0.298546895640687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.368852459016393</v>
+        <v>0.451197053406998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41304347826087</v>
+        <v>0.402173913043478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.303537466717383</v>
+        <v>0.304578130911843</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.422535211267606</v>
+        <v>0.435483870967742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.397790055248619</v>
+        <v>0.416116248348745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.442622950819672</v>
+        <v>0.532228360957643</v>
       </c>
       <c r="E3" t="n">
-        <v>0.369565217391304</v>
+        <v>0.414596273291925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.336249524534043</v>
+        <v>0.335981838819523</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.394366197183099</v>
+        <v>0.401612903225806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.441988950276243</v>
+        <v>0.498018494055482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.483606557377049</v>
+        <v>0.530386740331492</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.386839102320274</v>
+        <v>0.386681800983731</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.549295774647887</v>
+        <v>0.543548387096774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541436464088398</v>
+        <v>0.535006605019815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.557377049180328</v>
+        <v>0.616942909760589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.456521739130435</v>
+        <v>0.503105590062112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415747432483834</v>
+        <v>0.416193719258418</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.591549295774648</v>
+        <v>0.72741935483871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.56353591160221</v>
+        <v>0.684280052840158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.688524590163934</v>
+        <v>0.74585635359116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.698757763975155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.437428680106504</v>
+        <v>0.437381763147938</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.415492957746479</v>
+        <v>0.401612903225806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.430939226519337</v>
+        <v>0.467635402906209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.434426229508197</v>
+        <v>0.441988950276243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.369565217391304</v>
+        <v>0.498447204968944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.343476607074933</v>
+        <v>0.342792281498297</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_positive.xlsx
+++ b/xlsx/country_comparison/global_policies_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,9 +35,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
@@ -398,125 +401,146 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.359677419354839</v>
+        <v>0.300426435687128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.298546895640687</v>
+        <v>0.359554624039361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.451197053406998</v>
+        <v>0.364276347834727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.402173913043478</v>
+        <v>0.294609397195582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.304578130911843</v>
+        <v>0.448522698461768</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.413487865298268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.435483870967742</v>
+        <v>0.339647325616467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416116248348745</v>
+        <v>0.43083865601342</v>
       </c>
       <c r="D3" t="n">
-        <v>0.532228360957643</v>
+        <v>0.443544105892623</v>
       </c>
       <c r="E3" t="n">
-        <v>0.414596273291925</v>
+        <v>0.399511081480874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.335981838819523</v>
+        <v>0.512313110412162</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.391741208441003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401612903225806</v>
+        <v>0.388252590160263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.498018494055482</v>
+        <v>0.493240038253356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.530386740331492</v>
+        <v>0.3980247794855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.571428571428571</v>
+        <v>0.515138169012467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.386681800983731</v>
+        <v>0.51294832481047</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.546561652529891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.543548387096774</v>
+        <v>0.412368426912841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.535006605019815</v>
+        <v>0.538979949458463</v>
       </c>
       <c r="D5" t="n">
-        <v>0.616942909760589</v>
+        <v>0.552053393922151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.503105590062112</v>
+        <v>0.523732902662933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.416193719258418</v>
+        <v>0.607217366197795</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.506258691171157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.72741935483871</v>
+        <v>0.435732039712661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.684280052840158</v>
+        <v>0.706033770881491</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74585635359116</v>
+        <v>0.744379367256626</v>
       </c>
       <c r="E6" t="n">
-        <v>0.698757763975155</v>
+        <v>0.691867086834504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.437381763147938</v>
+        <v>0.727578773344445</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.63716697729758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401612903225806</v>
+        <v>0.338298350077793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.467635402906209</v>
+        <v>0.454729860545134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.441988950276243</v>
+        <v>0.411131624780866</v>
       </c>
       <c r="E7" t="n">
-        <v>0.498447204968944</v>
+        <v>0.478902466337572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.342792281498297</v>
+        <v>0.452094616253507</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.497251851173417</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_positive.xlsx
+++ b/xlsx/country_comparison/global_policies_positive.xlsx
@@ -410,22 +410,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300426435687128</v>
+        <v>0.308263974627297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.359554624039361</v>
+        <v>0.367753929241678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.364276347834727</v>
+        <v>0.363070549590102</v>
       </c>
       <c r="E2" t="n">
-        <v>0.294609397195582</v>
+        <v>0.298636471394347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.448522698461768</v>
+        <v>0.450760261067972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.413487865298268</v>
+        <v>0.404827258873017</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +433,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.339647325616467</v>
+        <v>0.343995473719487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43083865601342</v>
+        <v>0.44529348181459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.443544105892623</v>
+        <v>0.436195016223653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.399511081480874</v>
+        <v>0.428387525176064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.512313110412162</v>
+        <v>0.519693039047335</v>
       </c>
       <c r="G3" t="n">
-        <v>0.391741208441003</v>
+        <v>0.4322000098325</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +456,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.388252590160263</v>
+        <v>0.39042778352406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.493240038253356</v>
+        <v>0.492288437057659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3980247794855</v>
+        <v>0.386250992315757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.515138169012467</v>
+        <v>0.512608538780923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.51294832481047</v>
+        <v>0.512559236702742</v>
       </c>
       <c r="G4" t="n">
-        <v>0.546561652529891</v>
+        <v>0.540724036944967</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +479,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412368426912841</v>
+        <v>0.415328882814305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.538979949458463</v>
+        <v>0.550354209283569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552053393922151</v>
+        <v>0.541748120019898</v>
       </c>
       <c r="E5" t="n">
-        <v>0.523732902662933</v>
+        <v>0.542108788452825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.607217366197795</v>
+        <v>0.609268371100752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.506258691171157</v>
+        <v>0.531662747059825</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.435732039712661</v>
+        <v>0.441433541510217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.706033770881491</v>
+        <v>0.701089412680031</v>
       </c>
       <c r="D6" t="n">
-        <v>0.744379367256626</v>
+        <v>0.730207595707015</v>
       </c>
       <c r="E6" t="n">
-        <v>0.691867086834504</v>
+        <v>0.702460186820164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.727578773344445</v>
+        <v>0.723293610150671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.63716697729758</v>
+        <v>0.649070260943073</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +525,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.338298350077793</v>
+        <v>0.335805912734162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.454729860545134</v>
+        <v>0.45625455264978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.411131624780866</v>
+        <v>0.395547682484335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.478902466337572</v>
+        <v>0.479972662944145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.452094616253507</v>
+        <v>0.459974307335046</v>
       </c>
       <c r="G7" t="n">
-        <v>0.497251851173417</v>
+        <v>0.496319027167194</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_positive.xlsx
+++ b/xlsx/country_comparison/global_policies_positive.xlsx
@@ -38,19 +38,23 @@
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -410,22 +414,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.308263974627297</v>
+        <v>0.308391082895318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.367753929241678</v>
+        <v>0.365731640324952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.363070549590102</v>
+        <v>0.362994387715357</v>
       </c>
       <c r="E2" t="n">
-        <v>0.298636471394347</v>
+        <v>0.298641910128985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.450760261067972</v>
+        <v>0.450925576392201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.404827258873017</v>
+        <v>0.404799933538172</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +437,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343995473719487</v>
+        <v>0.344105383530252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.44529348181459</v>
+        <v>0.443594773467438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.436195016223653</v>
+        <v>0.436219325369461</v>
       </c>
       <c r="E3" t="n">
-        <v>0.428387525176064</v>
+        <v>0.428402025624624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.519693039047335</v>
+        <v>0.517519698549576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4322000098325</v>
+        <v>0.432189204736391</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +460,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39042778352406</v>
+        <v>0.390484602243659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492288437057659</v>
+        <v>0.49094991581821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.386250992315757</v>
+        <v>0.386302468418039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.512608538780923</v>
+        <v>0.512592712201629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.512559236702742</v>
+        <v>0.502893401333253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.540724036944967</v>
+        <v>0.540728143603005</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +483,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.415328882814305</v>
+        <v>0.415360140801995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.550354209283569</v>
+        <v>0.547947048183082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541748120019898</v>
+        <v>0.541679032092289</v>
       </c>
       <c r="E5" t="n">
-        <v>0.542108788452825</v>
+        <v>0.542087544034292</v>
       </c>
       <c r="F5" t="n">
-        <v>0.609268371100752</v>
+        <v>0.60768384976524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.531662747059825</v>
+        <v>0.531644320070783</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +506,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441433541510217</v>
+        <v>0.44148547521565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.701089412680031</v>
+        <v>0.699336514515305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.730207595707015</v>
+        <v>0.730152208937297</v>
       </c>
       <c r="E6" t="n">
-        <v>0.702460186820164</v>
+        <v>0.702462385725501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.723293610150671</v>
+        <v>0.718628182752579</v>
       </c>
       <c r="G6" t="n">
-        <v>0.649070260943073</v>
+        <v>0.6490870831924</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +529,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.335805912734162</v>
+        <v>0.335948883448662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.45625455264978</v>
+        <v>0.45314379468064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395547682484335</v>
+        <v>0.395498925733041</v>
       </c>
       <c r="E7" t="n">
-        <v>0.479972662944145</v>
+        <v>0.479942664267705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.459974307335046</v>
+        <v>0.441371326747748</v>
       </c>
       <c r="G7" t="n">
-        <v>0.496319027167194</v>
+        <v>0.496306674811346</v>
       </c>
     </row>
   </sheetData>
